--- a/Entry_Metadata.xlsx
+++ b/Entry_Metadata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miscellaneous\Personal\Code\Frontend\github_io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98830F3C-0486-40B5-9154-E06722658BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="60" windowWidth="28410" windowHeight="12788"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +45,6 @@
     <t>MVS Collection</t>
   </si>
   <si>
-    <t>Original Windows iso images</t>
-  </si>
-  <si>
     <t>Windows 原版镜像</t>
   </si>
   <si>
@@ -148,25 +151,22 @@
   </si>
   <si>
     <t>关于《烙印勇士》的杂谈</t>
+  </si>
+  <si>
+    <t>Original Windows ISO images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,12 +189,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +284,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -536,132 +569,132 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -683,7 +716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
